--- a/data/trans_bre/P9_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>-3,0%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 1,27</t>
+          <t>-13,15; 1,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 3,71</t>
+          <t>-9,72; 4,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 1,28</t>
+          <t>-14,24; 1,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 4,09</t>
+          <t>-10,18; 4,61</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,33</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>-9,5%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 11,23</t>
+          <t>-9,45; 10,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 2,95</t>
+          <t>-17,1; 4,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 15,35</t>
+          <t>-11,25; 14,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 3,54</t>
+          <t>-19,56; 4,97</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 8,54</t>
+          <t>-4,98; 8,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 14,8</t>
+          <t>0,15; 16,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 10,97</t>
+          <t>-5,64; 10,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 20,06</t>
+          <t>0,17; 21,88</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 4,15</t>
+          <t>-7,7; 3,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 10,0</t>
+          <t>-4,85; 9,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 5,13</t>
+          <t>-9,08; 5,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 13,34</t>
+          <t>-5,65; 11,85</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,12</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>-12,02%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 5,86</t>
+          <t>-13,78; 3,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 0,33</t>
+          <t>-17,68; 0,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 10,07</t>
+          <t>-19,84; 6,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 0,49</t>
+          <t>-22,74; 0,22</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,6</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,24</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-23,62%</t>
+          <t>-23,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>-26,19%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -2,23</t>
+          <t>-20,43; -2,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,93; -1,37</t>
+          <t>-25,14; -3,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,91; -4,99</t>
+          <t>-37,85; -5,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,13; -3,07</t>
+          <t>-41,47; -7,76</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>-6,69%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -1,6</t>
+          <t>-9,22; -1,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -1,12</t>
+          <t>-9,08; -1,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,17; -2,22</t>
+          <t>-11,91; -2,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,08; -1,5</t>
+          <t>-11,33; -1,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,63</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.631688041698746</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.084142055741135</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.06210592898169954</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.03310011877216701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,15; 1,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 4,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,24; 1,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 4,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-13.14832044303423</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.644278441507705</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1423751187143369</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1009189224497049</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.048947852678975</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.309156092126995</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.01152768699841957</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.03634549085952959</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-8,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-9,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,45; 10,81</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,1; 4,75</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,25; 14,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-19,56; 4,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.3079512449392641</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.058469261283697</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.003930902088736005</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1041160716716078</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,01%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.454750228600014</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.9800361964706</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1124651864473091</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2009362107319979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 8,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 16,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 10,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 21,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.80819812303877</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.660477870071031</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1467359114724888</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.02653734037669822</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.11755879506964</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.142396678141127</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.01319221293609505</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.0749048925046536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 3,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 9,11</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; 5,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 11,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.982788998962725</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.006131655254289</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.05638948144646694</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.01137082723411064</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.455576290978401</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.90038151563523</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1060489417007832</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2004980869885619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,13</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,7%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-12,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,78; 3,94</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-17,68; 0,17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-19,84; 6,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-22,74; 0,22</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.83794312048623</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.400694177027674</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02220980486367675</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.02948476204984158</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-11,59</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-14,34</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-23,59%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.701846935650165</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.029955996942975</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.09083309609379894</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04734087913130822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-20,43; -2,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-25,14; -3,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-37,85; -5,41</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-41,47; -7,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.940125148908447</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.05481299339491</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.05054648717560706</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1320323156141442</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,37</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-7,08%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.127396412333118</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.704322675109522</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.07697813434792518</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.1180575265031833</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-9,22; -1,69</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; -1,12</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,91; -2,29</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,33; -1,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.78007340997207</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-17.23408418068102</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.1984470645770145</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2233904550559551</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.940099798204815</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.3059129783640508</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.06104665926612084</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.003343047187560938</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-11.58723570411764</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-14.19525331092357</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2359002559159269</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.264250470332176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-20.42867387205044</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-25.70311297774727</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3785161675567809</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4270672365155838</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-2.377845848644517</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-3.355804848602564</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.05407429835492226</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.07034454571690396</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.373796875096481</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.449140104084971</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.0708316502245567</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.0692679953913577</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.224465452460098</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-9.424083020400536</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.119074438161706</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1164977058683882</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-1.688214261689764</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-1.332057727173155</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-0.02292227668284239</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>-0.01779155748933683</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
